--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T12:18:36+00:00</t>
+    <t>2024-10-30T12:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T12:31:35+00:00</t>
+    <t>2024-10-30T12:37:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T12:37:07+00:00</t>
+    <t>2024-10-30T12:50:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T12:50:14+00:00</t>
+    <t>2024-10-30T12:57:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T12:57:02+00:00</t>
+    <t>2024-10-30T13:01:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:01:12+00:00</t>
+    <t>2024-10-30T13:11:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:11:44+00:00</t>
+    <t>2024-10-30T13:17:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:17:52+00:00</t>
+    <t>2024-10-30T13:34:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:34:18+00:00</t>
+    <t>2024-10-30T13:35:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:35:52+00:00</t>
+    <t>2024-10-30T13:38:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:38:37+00:00</t>
+    <t>2024-10-30T13:46:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:46:31+00:00</t>
+    <t>2024-10-30T14:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T14:06:03+00:00</t>
+    <t>2024-10-30T14:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T14:10:54+00:00</t>
+    <t>2024-10-30T14:21:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T14:21:55+00:00</t>
+    <t>2024-10-30T14:40:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T14:40:41+00:00</t>
+    <t>2024-10-30T15:24:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T15:24:52+00:00</t>
+    <t>2024-10-30T15:34:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T15:34:11+00:00</t>
+    <t>2024-10-30T15:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T15:45:52+00:00</t>
+    <t>2024-10-30T15:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T15:52:21+00:00</t>
+    <t>2024-10-30T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
+++ b/253-modifi-des-reqêtes-sqlite-pour-tenir-compte-nouvelle-version-publisher/ig/StructureDefinition-esms-consent.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T15:59:39+00:00</t>
+    <t>2024-11-04T10:31:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
